--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H2">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I2">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J2">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.4326564320731</v>
+        <v>13.663472</v>
       </c>
       <c r="N2">
-        <v>13.4326564320731</v>
+        <v>40.990416</v>
       </c>
       <c r="O2">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="P2">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="Q2">
-        <v>19.38046687573701</v>
+        <v>20.20821132513067</v>
       </c>
       <c r="R2">
-        <v>19.38046687573701</v>
+        <v>181.873901926176</v>
       </c>
       <c r="S2">
-        <v>0.04581299342098943</v>
+        <v>0.04357258213906813</v>
       </c>
       <c r="T2">
-        <v>0.04581299342098943</v>
+        <v>0.04357258213906814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H3">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I3">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J3">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.5194921449219</v>
+        <v>30.94593233333333</v>
       </c>
       <c r="N3">
-        <v>30.5194921449219</v>
+        <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="P3">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="Q3">
-        <v>44.0331374192446</v>
+        <v>45.76888950664911</v>
       </c>
       <c r="R3">
-        <v>44.0331374192446</v>
+        <v>411.920005559842</v>
       </c>
       <c r="S3">
-        <v>0.1040888151883938</v>
+        <v>0.09868605713571273</v>
       </c>
       <c r="T3">
-        <v>0.1040888151883938</v>
+        <v>0.09868605713571274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H4">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I4">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J4">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.98674709753705</v>
+        <v>5.057967000000001</v>
       </c>
       <c r="N4">
-        <v>4.98674709753705</v>
+        <v>15.173901</v>
       </c>
       <c r="O4">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452472</v>
       </c>
       <c r="P4">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452471</v>
       </c>
       <c r="Q4">
-        <v>7.194815666596996</v>
+        <v>7.480709589154001</v>
       </c>
       <c r="R4">
-        <v>7.194815666596996</v>
+        <v>67.326386302386</v>
       </c>
       <c r="S4">
-        <v>0.01700764201979552</v>
+        <v>0.01612977159569662</v>
       </c>
       <c r="T4">
-        <v>0.01700764201979552</v>
+        <v>0.01612977159569662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H5">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I5">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J5">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.72040008701831</v>
+        <v>6.127540333333333</v>
       </c>
       <c r="N5">
-        <v>5.72040008701831</v>
+        <v>18.382621</v>
       </c>
       <c r="O5">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343023</v>
       </c>
       <c r="P5">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343022</v>
       </c>
       <c r="Q5">
-        <v>8.25332092449799</v>
+        <v>9.062603557811778</v>
       </c>
       <c r="R5">
-        <v>8.25332092449799</v>
+        <v>81.56343202030601</v>
       </c>
       <c r="S5">
-        <v>0.01950981571495098</v>
+        <v>0.01954062294595544</v>
       </c>
       <c r="T5">
-        <v>0.01950981571495098</v>
+        <v>0.01954062294595544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44278735734373</v>
+        <v>1.478995333333333</v>
       </c>
       <c r="H6">
-        <v>1.44278735734373</v>
+        <v>4.436986</v>
       </c>
       <c r="I6">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581744</v>
       </c>
       <c r="J6">
-        <v>0.2096077187919092</v>
+        <v>0.2014423261581745</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.79899940307721</v>
+        <v>7.373288333333332</v>
       </c>
       <c r="N6">
-        <v>6.79899940307721</v>
+        <v>22.119865</v>
       </c>
       <c r="O6">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="P6">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="Q6">
-        <v>9.809510381347366</v>
+        <v>10.90505903632111</v>
       </c>
       <c r="R6">
-        <v>9.809510381347366</v>
+        <v>98.14553132688999</v>
       </c>
       <c r="S6">
-        <v>0.02318845244777955</v>
+        <v>0.0235132923417415</v>
       </c>
       <c r="T6">
-        <v>0.02318845244777955</v>
+        <v>0.0235132923417415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H7">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I7">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J7">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.4326564320731</v>
+        <v>13.663472</v>
       </c>
       <c r="N7">
-        <v>13.4326564320731</v>
+        <v>40.990416</v>
       </c>
       <c r="O7">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="P7">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="Q7">
-        <v>51.71064352067147</v>
+        <v>52.87300016850133</v>
       </c>
       <c r="R7">
-        <v>51.71064352067147</v>
+        <v>475.857001516512</v>
       </c>
       <c r="S7">
-        <v>0.1222374768676754</v>
+        <v>0.1140038128914456</v>
       </c>
       <c r="T7">
-        <v>0.1222374768676754</v>
+        <v>0.1140038128914456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H8">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I8">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J8">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.5194921449219</v>
+        <v>30.94593233333333</v>
       </c>
       <c r="N8">
-        <v>30.5194921449219</v>
+        <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="P8">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="Q8">
-        <v>117.4884943062915</v>
+        <v>119.7502571436282</v>
       </c>
       <c r="R8">
-        <v>117.4884943062915</v>
+        <v>1077.752314292654</v>
       </c>
       <c r="S8">
-        <v>0.2777280677089673</v>
+        <v>0.2582033526676579</v>
       </c>
       <c r="T8">
-        <v>0.2777280677089673</v>
+        <v>0.2582033526676579</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H9">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I9">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J9">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.98674709753705</v>
+        <v>5.057967000000001</v>
       </c>
       <c r="N9">
-        <v>4.98674709753705</v>
+        <v>15.173901</v>
       </c>
       <c r="O9">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452472</v>
       </c>
       <c r="P9">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452471</v>
       </c>
       <c r="Q9">
-        <v>19.19708903391375</v>
+        <v>19.572615953198</v>
       </c>
       <c r="R9">
-        <v>19.19708903391375</v>
+        <v>176.153543578782</v>
       </c>
       <c r="S9">
-        <v>0.04537951119814775</v>
+        <v>0.04220212281908334</v>
       </c>
       <c r="T9">
-        <v>0.04537951119814775</v>
+        <v>0.04220212281908335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H10">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I10">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J10">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.72040008701831</v>
+        <v>6.127540333333333</v>
       </c>
       <c r="N10">
-        <v>5.72040008701831</v>
+        <v>18.382621</v>
       </c>
       <c r="O10">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343023</v>
       </c>
       <c r="P10">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343022</v>
       </c>
       <c r="Q10">
-        <v>22.02137538403261</v>
+        <v>23.71150181131356</v>
       </c>
       <c r="R10">
-        <v>22.02137538403261</v>
+        <v>213.403516301822</v>
       </c>
       <c r="S10">
-        <v>0.05205576996975513</v>
+        <v>0.0511263141349519</v>
       </c>
       <c r="T10">
-        <v>0.05205576996975513</v>
+        <v>0.0511263141349519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.84962153853665</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H11">
-        <v>3.84962153853665</v>
+        <v>11.608982</v>
       </c>
       <c r="I11">
-        <v>0.5592718738473313</v>
+        <v>0.527056055261021</v>
       </c>
       <c r="J11">
-        <v>0.5592718738473313</v>
+        <v>0.5270560552610211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.79899940307721</v>
+        <v>7.373288333333332</v>
       </c>
       <c r="N11">
-        <v>6.79899940307721</v>
+        <v>22.119865</v>
       </c>
       <c r="O11">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="P11">
-        <v>0.1106278556029713</v>
+        <v>0.1167246863664523</v>
       </c>
       <c r="Q11">
-        <v>26.17357454258385</v>
+        <v>28.53212384749222</v>
       </c>
       <c r="R11">
-        <v>26.17357454258385</v>
+        <v>256.78911462743</v>
       </c>
       <c r="S11">
-        <v>0.06187104810278576</v>
+        <v>0.06152045274788222</v>
       </c>
       <c r="T11">
-        <v>0.06187104810278576</v>
+        <v>0.06152045274788223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H12">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I12">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J12">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.4326564320731</v>
+        <v>13.663472</v>
       </c>
       <c r="N12">
-        <v>13.4326564320731</v>
+        <v>40.990416</v>
       </c>
       <c r="O12">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="P12">
-        <v>0.2185653929398987</v>
+        <v>0.2163030132250088</v>
       </c>
       <c r="Q12">
-        <v>21.36954414168711</v>
+        <v>1.433352866688</v>
       </c>
       <c r="R12">
-        <v>21.36954414168711</v>
+        <v>12.900175800192</v>
       </c>
       <c r="S12">
-        <v>0.05051492265123385</v>
+        <v>0.00309056969531804</v>
       </c>
       <c r="T12">
-        <v>0.05051492265123385</v>
+        <v>0.00309056969531804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H13">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I13">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J13">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.5194921449219</v>
+        <v>30.94593233333333</v>
       </c>
       <c r="N13">
-        <v>30.5194921449219</v>
+        <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="P13">
-        <v>0.4965886551712786</v>
+        <v>0.4898973270305839</v>
       </c>
       <c r="Q13">
-        <v>48.55239452231918</v>
+        <v>3.246352085496</v>
       </c>
       <c r="R13">
-        <v>48.55239452231918</v>
+        <v>29.217168769464</v>
       </c>
       <c r="S13">
-        <v>0.1147717722739176</v>
+        <v>0.006999726033233916</v>
       </c>
       <c r="T13">
-        <v>0.1147717722739176</v>
+        <v>0.006999726033233917</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H14">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I14">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J14">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.98674709753705</v>
+        <v>5.057967000000001</v>
       </c>
       <c r="N14">
-        <v>4.98674709753705</v>
+        <v>15.173901</v>
       </c>
       <c r="O14">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452472</v>
       </c>
       <c r="P14">
-        <v>0.0811403421487549</v>
+        <v>0.08007141251452471</v>
       </c>
       <c r="Q14">
-        <v>7.933241854515416</v>
+        <v>0.530600970168</v>
       </c>
       <c r="R14">
-        <v>7.933241854515416</v>
+        <v>4.775408731512</v>
       </c>
       <c r="S14">
-        <v>0.01875318893081163</v>
+        <v>0.001144072277538147</v>
       </c>
       <c r="T14">
-        <v>0.01875318893081163</v>
+        <v>0.001144072277538147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.59086508686868</v>
+        <v>0.104904</v>
       </c>
       <c r="H15">
-        <v>1.59086508686868</v>
+        <v>0.314712</v>
       </c>
       <c r="I15">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="J15">
-        <v>0.2311204073607595</v>
+        <v>0.0142881490610724</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.72040008701831</v>
+        <v>6.127540333333333</v>
       </c>
       <c r="N15">
-        <v>5.72040008701831</v>
+        <v>18.382621</v>
       </c>
       <c r="O15">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343023</v>
       </c>
       <c r="P15">
-        <v>0.09307775413709646</v>
+        <v>0.09700356086343022</v>
       </c>
       <c r="Q15">
-        <v>9.100384781357988</v>
+        <v>0.6428034911279999</v>
       </c>
       <c r="R15">
-        <v>9.100384781357988</v>
+        <v>5.785231420152</v>
       </c>
       <c r="S15">
-        <v>0.02151216845239035</v>
+        <v>0.0013860013370715</v>
       </c>
       <c r="T15">
-        <v>0.02151216845239035</v>
+        <v>0.0013860013370715</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.104904</v>
+      </c>
+      <c r="H16">
+        <v>0.314712</v>
+      </c>
+      <c r="I16">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="J16">
+        <v>0.0142881490610724</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.373288333333332</v>
+      </c>
+      <c r="N16">
+        <v>22.119865</v>
+      </c>
+      <c r="O16">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="P16">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="Q16">
+        <v>0.7734874393199999</v>
+      </c>
+      <c r="R16">
+        <v>6.961386953879999</v>
+      </c>
+      <c r="S16">
+        <v>0.001667779717910796</v>
+      </c>
+      <c r="T16">
+        <v>0.001667779717910796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.192776</v>
+      </c>
+      <c r="H17">
+        <v>0.578328</v>
+      </c>
+      <c r="I17">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J17">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.663472</v>
+      </c>
+      <c r="N17">
+        <v>40.990416</v>
+      </c>
+      <c r="O17">
+        <v>0.2163030132250088</v>
+      </c>
+      <c r="P17">
+        <v>0.2163030132250088</v>
+      </c>
+      <c r="Q17">
+        <v>2.633989478271999</v>
+      </c>
+      <c r="R17">
+        <v>23.705905304448</v>
+      </c>
+      <c r="S17">
+        <v>0.005679360783045742</v>
+      </c>
+      <c r="T17">
+        <v>0.005679360783045742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.192776</v>
+      </c>
+      <c r="H18">
+        <v>0.578328</v>
+      </c>
+      <c r="I18">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J18">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N18">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O18">
+        <v>0.4898973270305839</v>
+      </c>
+      <c r="P18">
+        <v>0.4898973270305839</v>
+      </c>
+      <c r="Q18">
+        <v>5.965633051490665</v>
+      </c>
+      <c r="R18">
+        <v>53.69069746341599</v>
+      </c>
+      <c r="S18">
+        <v>0.01286299078950947</v>
+      </c>
+      <c r="T18">
+        <v>0.01286299078950947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.192776</v>
+      </c>
+      <c r="H19">
+        <v>0.578328</v>
+      </c>
+      <c r="I19">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J19">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.057967000000001</v>
+      </c>
+      <c r="N19">
+        <v>15.173901</v>
+      </c>
+      <c r="O19">
+        <v>0.08007141251452472</v>
+      </c>
+      <c r="P19">
+        <v>0.08007141251452471</v>
+      </c>
+      <c r="Q19">
+        <v>0.975054646392</v>
+      </c>
+      <c r="R19">
+        <v>8.775491817528</v>
+      </c>
+      <c r="S19">
+        <v>0.002102395307849976</v>
+      </c>
+      <c r="T19">
+        <v>0.002102395307849976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.192776</v>
+      </c>
+      <c r="H20">
+        <v>0.578328</v>
+      </c>
+      <c r="I20">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J20">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.127540333333333</v>
+      </c>
+      <c r="N20">
+        <v>18.382621</v>
+      </c>
+      <c r="O20">
+        <v>0.09700356086343023</v>
+      </c>
+      <c r="P20">
+        <v>0.09700356086343022</v>
+      </c>
+      <c r="Q20">
+        <v>1.181242715298666</v>
+      </c>
+      <c r="R20">
+        <v>10.631184437688</v>
+      </c>
+      <c r="S20">
+        <v>0.002546974317045065</v>
+      </c>
+      <c r="T20">
+        <v>0.002546974317045065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.192776</v>
+      </c>
+      <c r="H21">
+        <v>0.578328</v>
+      </c>
+      <c r="I21">
+        <v>0.02625650331157337</v>
+      </c>
+      <c r="J21">
+        <v>0.02625650331157338</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.373288333333332</v>
+      </c>
+      <c r="N21">
+        <v>22.119865</v>
+      </c>
+      <c r="O21">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="P21">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="Q21">
+        <v>1.421393031746666</v>
+      </c>
+      <c r="R21">
+        <v>12.79253728572</v>
+      </c>
+      <c r="S21">
+        <v>0.003064782114123118</v>
+      </c>
+      <c r="T21">
+        <v>0.003064782114123118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H22">
+        <v>5.087078</v>
+      </c>
+      <c r="I22">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J22">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.663472</v>
+      </c>
+      <c r="N22">
+        <v>40.990416</v>
+      </c>
+      <c r="O22">
+        <v>0.2163030132250088</v>
+      </c>
+      <c r="P22">
+        <v>0.2163030132250088</v>
+      </c>
+      <c r="Q22">
+        <v>23.16904927160533</v>
+      </c>
+      <c r="R22">
+        <v>208.521443444448</v>
+      </c>
+      <c r="S22">
+        <v>0.04995668771613128</v>
+      </c>
+      <c r="T22">
+        <v>0.04995668771613127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H23">
+        <v>5.087078</v>
+      </c>
+      <c r="I23">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J23">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N23">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O23">
+        <v>0.4898973270305839</v>
+      </c>
+      <c r="P23">
+        <v>0.4898973270305839</v>
+      </c>
+      <c r="Q23">
+        <v>52.47479052079622</v>
+      </c>
+      <c r="R23">
+        <v>472.273114687166</v>
+      </c>
+      <c r="S23">
+        <v>0.1131452004044699</v>
+      </c>
+      <c r="T23">
+        <v>0.1131452004044699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.59086508686868</v>
-      </c>
-      <c r="H16">
-        <v>1.59086508686868</v>
-      </c>
-      <c r="I16">
-        <v>0.2311204073607595</v>
-      </c>
-      <c r="J16">
-        <v>0.2311204073607595</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.79899940307721</v>
-      </c>
-      <c r="N16">
-        <v>6.79899940307721</v>
-      </c>
-      <c r="O16">
-        <v>0.1106278556029713</v>
-      </c>
-      <c r="P16">
-        <v>0.1106278556029713</v>
-      </c>
-      <c r="Q16">
-        <v>10.81629077599653</v>
-      </c>
-      <c r="R16">
-        <v>10.81629077599653</v>
-      </c>
-      <c r="S16">
-        <v>0.02556835505240601</v>
-      </c>
-      <c r="T16">
-        <v>0.02556835505240601</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H24">
+        <v>5.087078</v>
+      </c>
+      <c r="I24">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J24">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.057967000000001</v>
+      </c>
+      <c r="N24">
+        <v>15.173901</v>
+      </c>
+      <c r="O24">
+        <v>0.08007141251452472</v>
+      </c>
+      <c r="P24">
+        <v>0.08007141251452471</v>
+      </c>
+      <c r="Q24">
+        <v>8.576757550142002</v>
+      </c>
+      <c r="R24">
+        <v>77.19081795127801</v>
+      </c>
+      <c r="S24">
+        <v>0.01849305051435663</v>
+      </c>
+      <c r="T24">
+        <v>0.01849305051435663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H25">
+        <v>5.087078</v>
+      </c>
+      <c r="I25">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J25">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.127540333333333</v>
+      </c>
+      <c r="N25">
+        <v>18.382621</v>
+      </c>
+      <c r="O25">
+        <v>0.09700356086343023</v>
+      </c>
+      <c r="P25">
+        <v>0.09700356086343022</v>
+      </c>
+      <c r="Q25">
+        <v>10.39042520793756</v>
+      </c>
+      <c r="R25">
+        <v>93.513826871438</v>
+      </c>
+      <c r="S25">
+        <v>0.02240364812840633</v>
+      </c>
+      <c r="T25">
+        <v>0.02240364812840633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.695692666666667</v>
+      </c>
+      <c r="H26">
+        <v>5.087078</v>
+      </c>
+      <c r="I26">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="J26">
+        <v>0.2309569662081588</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.373288333333332</v>
+      </c>
+      <c r="N26">
+        <v>22.119865</v>
+      </c>
+      <c r="O26">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="P26">
+        <v>0.1167246863664523</v>
+      </c>
+      <c r="Q26">
+        <v>12.50283095605222</v>
+      </c>
+      <c r="R26">
+        <v>112.52547860447</v>
+      </c>
+      <c r="S26">
+        <v>0.02695837944479466</v>
+      </c>
+      <c r="T26">
+        <v>0.02695837944479466</v>
       </c>
     </row>
   </sheetData>
